--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2219.883318198897</v>
+        <v>2591.745641245649</v>
       </c>
       <c r="AB2" t="n">
-        <v>3037.342290300044</v>
+        <v>3546.140726100497</v>
       </c>
       <c r="AC2" t="n">
-        <v>2747.462605050372</v>
+        <v>3207.702032241099</v>
       </c>
       <c r="AD2" t="n">
-        <v>2219883.318198897</v>
+        <v>2591745.641245649</v>
       </c>
       <c r="AE2" t="n">
-        <v>3037342.290300044</v>
+        <v>3546140.726100497</v>
       </c>
       <c r="AF2" t="n">
         <v>2.086576250038998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.2199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>2747462.605050371</v>
+        <v>3207702.0322411</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1371.232276721146</v>
+        <v>1635.420865794066</v>
       </c>
       <c r="AB3" t="n">
-        <v>1876.180495508434</v>
+        <v>2237.654978255972</v>
       </c>
       <c r="AC3" t="n">
-        <v>1697.120462252972</v>
+        <v>2024.096327699708</v>
       </c>
       <c r="AD3" t="n">
-        <v>1371232.276721146</v>
+        <v>1635420.865794066</v>
       </c>
       <c r="AE3" t="n">
-        <v>1876180.495508434</v>
+        <v>2237654.978255972</v>
       </c>
       <c r="AF3" t="n">
         <v>2.936693005189091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.44907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1697120.462252972</v>
+        <v>2024096.327699708</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1170.700978412772</v>
+        <v>1415.345679333919</v>
       </c>
       <c r="AB4" t="n">
-        <v>1601.804726346412</v>
+        <v>1936.538399109201</v>
       </c>
       <c r="AC4" t="n">
-        <v>1448.930731410963</v>
+        <v>1751.717892246931</v>
       </c>
       <c r="AD4" t="n">
-        <v>1170700.978412772</v>
+        <v>1415345.679333919</v>
       </c>
       <c r="AE4" t="n">
-        <v>1601804.726346412</v>
+        <v>1936538.399109201</v>
       </c>
       <c r="AF4" t="n">
         <v>3.272454543831877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.96296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>1448930.731410963</v>
+        <v>1751717.892246931</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1085.752740324516</v>
+        <v>1320.608919975315</v>
       </c>
       <c r="AB5" t="n">
-        <v>1485.574799342293</v>
+        <v>1806.91538546391</v>
       </c>
       <c r="AC5" t="n">
-        <v>1343.793625510389</v>
+        <v>1634.465917096905</v>
       </c>
       <c r="AD5" t="n">
-        <v>1085752.740324517</v>
+        <v>1320608.919975315</v>
       </c>
       <c r="AE5" t="n">
-        <v>1485574.799342293</v>
+        <v>1806915.38546391</v>
       </c>
       <c r="AF5" t="n">
         <v>3.446030783517971e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.54398148148149</v>
       </c>
       <c r="AH5" t="n">
-        <v>1343793.625510389</v>
+        <v>1634465.917096905</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1035.4961304656</v>
+        <v>1250.77627860556</v>
       </c>
       <c r="AB6" t="n">
-        <v>1416.811488568176</v>
+        <v>1711.367284743105</v>
       </c>
       <c r="AC6" t="n">
-        <v>1281.592988606642</v>
+        <v>1548.036793006292</v>
       </c>
       <c r="AD6" t="n">
-        <v>1035496.1304656</v>
+        <v>1250776.27860556</v>
       </c>
       <c r="AE6" t="n">
-        <v>1416811.488568176</v>
+        <v>1711367.284743105</v>
       </c>
       <c r="AF6" t="n">
         <v>3.557634881378639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1281592.988606642</v>
+        <v>1548036.793006292</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>992.5809154335973</v>
+        <v>1207.826898154776</v>
       </c>
       <c r="AB7" t="n">
-        <v>1358.092998075724</v>
+        <v>1652.602047617405</v>
       </c>
       <c r="AC7" t="n">
-        <v>1228.47850843487</v>
+        <v>1494.88002763434</v>
       </c>
       <c r="AD7" t="n">
-        <v>992580.9154335973</v>
+        <v>1207826.898154776</v>
       </c>
       <c r="AE7" t="n">
-        <v>1358092.998075724</v>
+        <v>1652602.047617405</v>
       </c>
       <c r="AF7" t="n">
         <v>3.636422221423655e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.15972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1228478.50843487</v>
+        <v>1494880.02763434</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>952.7306499098059</v>
+        <v>1167.942467212203</v>
       </c>
       <c r="AB8" t="n">
-        <v>1303.568106716436</v>
+        <v>1598.030409624869</v>
       </c>
       <c r="AC8" t="n">
-        <v>1179.157396180747</v>
+        <v>1445.516630180038</v>
       </c>
       <c r="AD8" t="n">
-        <v>952730.649909806</v>
+        <v>1167942.467212203</v>
       </c>
       <c r="AE8" t="n">
-        <v>1303568.106716436</v>
+        <v>1598030.409624869</v>
       </c>
       <c r="AF8" t="n">
         <v>3.69554662806673e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.46527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1179157.396180747</v>
+        <v>1445516.630180038</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>922.1869072902177</v>
+        <v>1137.46604440032</v>
       </c>
       <c r="AB9" t="n">
-        <v>1261.776810569493</v>
+        <v>1556.331223408768</v>
       </c>
       <c r="AC9" t="n">
-        <v>1141.354602683616</v>
+        <v>1407.797155771225</v>
       </c>
       <c r="AD9" t="n">
-        <v>922186.9072902177</v>
+        <v>1137466.04440032</v>
       </c>
       <c r="AE9" t="n">
-        <v>1261776.810569493</v>
+        <v>1556331.223408767</v>
       </c>
       <c r="AF9" t="n">
         <v>3.73772023005296e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.99074074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1141354.602683616</v>
+        <v>1407797.155771225</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>915.2266870043978</v>
+        <v>1130.5058241145</v>
       </c>
       <c r="AB10" t="n">
-        <v>1252.253530111186</v>
+        <v>1546.807942950461</v>
       </c>
       <c r="AC10" t="n">
-        <v>1132.740210746242</v>
+        <v>1399.182763833851</v>
       </c>
       <c r="AD10" t="n">
-        <v>915226.6870043979</v>
+        <v>1130505.8241145</v>
       </c>
       <c r="AE10" t="n">
-        <v>1252253.530111186</v>
+        <v>1546807.942950461</v>
       </c>
       <c r="AF10" t="n">
         <v>3.748975564345106e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>41.86342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>1132740.210746242</v>
+        <v>1399182.763833851</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>917.7105725476088</v>
+        <v>1132.989709657711</v>
       </c>
       <c r="AB11" t="n">
-        <v>1255.652091892704</v>
+        <v>1550.206504731978</v>
       </c>
       <c r="AC11" t="n">
-        <v>1135.814418561243</v>
+        <v>1402.256971648852</v>
       </c>
       <c r="AD11" t="n">
-        <v>917710.5725476088</v>
+        <v>1132989.709657711</v>
       </c>
       <c r="AE11" t="n">
-        <v>1255652.091892704</v>
+        <v>1550206.504731978</v>
       </c>
       <c r="AF11" t="n">
         <v>3.747212680660794e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>42</v>
+        <v>41.88657407407407</v>
       </c>
       <c r="AH11" t="n">
-        <v>1135814.418561243</v>
+        <v>1402256.971648852</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1718.670023561438</v>
+        <v>2047.740363827552</v>
       </c>
       <c r="AB2" t="n">
-        <v>2351.560148606924</v>
+        <v>2801.808705717836</v>
       </c>
       <c r="AC2" t="n">
-        <v>2127.130548459277</v>
+        <v>2534.408015207342</v>
       </c>
       <c r="AD2" t="n">
-        <v>1718670.023561438</v>
+        <v>2047740.363827552</v>
       </c>
       <c r="AE2" t="n">
-        <v>2351560.148606924</v>
+        <v>2801808.705717837</v>
       </c>
       <c r="AF2" t="n">
         <v>2.614575915901099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.68287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2127130.548459277</v>
+        <v>2534408.015207341</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1158.698623901393</v>
+        <v>1410.324570966642</v>
       </c>
       <c r="AB3" t="n">
-        <v>1585.382575397432</v>
+        <v>1929.668297125425</v>
       </c>
       <c r="AC3" t="n">
-        <v>1434.075887499921</v>
+        <v>1745.503463154239</v>
       </c>
       <c r="AD3" t="n">
-        <v>1158698.623901393</v>
+        <v>1410324.570966642</v>
       </c>
       <c r="AE3" t="n">
-        <v>1585382.575397433</v>
+        <v>1929668.297125425</v>
       </c>
       <c r="AF3" t="n">
         <v>3.447423916352428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.81481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1434075.887499921</v>
+        <v>1745503.463154239</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1017.748062979038</v>
+        <v>1250.012911744072</v>
       </c>
       <c r="AB4" t="n">
-        <v>1392.527799643585</v>
+        <v>1710.322812525848</v>
       </c>
       <c r="AC4" t="n">
-        <v>1259.626900870643</v>
+        <v>1547.092003751524</v>
       </c>
       <c r="AD4" t="n">
-        <v>1017748.062979038</v>
+        <v>1250012.911744072</v>
       </c>
       <c r="AE4" t="n">
-        <v>1392527.799643585</v>
+        <v>1710322.812525848</v>
       </c>
       <c r="AF4" t="n">
         <v>3.764508572857772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.61342592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>1259626.900870643</v>
+        <v>1547092.003751524</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>945.7640560724798</v>
+        <v>1168.348355687405</v>
       </c>
       <c r="AB5" t="n">
-        <v>1294.036105683778</v>
+        <v>1598.585764143175</v>
       </c>
       <c r="AC5" t="n">
-        <v>1170.535115948398</v>
+        <v>1446.018982442561</v>
       </c>
       <c r="AD5" t="n">
-        <v>945764.0560724798</v>
+        <v>1168348.355687405</v>
       </c>
       <c r="AE5" t="n">
-        <v>1294036.105683777</v>
+        <v>1598585.764143175</v>
       </c>
       <c r="AF5" t="n">
         <v>3.92653779368315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.73842592592592</v>
       </c>
       <c r="AH5" t="n">
-        <v>1170535.115948398</v>
+        <v>1446018.982442561</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>896.6794954902016</v>
+        <v>1109.6174113738</v>
       </c>
       <c r="AB6" t="n">
-        <v>1226.876444437122</v>
+        <v>1518.227495106903</v>
       </c>
       <c r="AC6" t="n">
-        <v>1109.785078511947</v>
+        <v>1373.329993819572</v>
       </c>
       <c r="AD6" t="n">
-        <v>896679.4954902016</v>
+        <v>1109617.411373799</v>
       </c>
       <c r="AE6" t="n">
-        <v>1226876.444437122</v>
+        <v>1518227.495106903</v>
       </c>
       <c r="AF6" t="n">
         <v>4.03500240945545e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.55787037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1109785.078511947</v>
+        <v>1373329.993819572</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>860.0959943754189</v>
+        <v>1072.999744840236</v>
       </c>
       <c r="AB7" t="n">
-        <v>1176.821284261714</v>
+        <v>1468.125588298247</v>
       </c>
       <c r="AC7" t="n">
-        <v>1064.507112570821</v>
+        <v>1328.009742678266</v>
       </c>
       <c r="AD7" t="n">
-        <v>860095.9943754189</v>
+        <v>1072999.744840236</v>
       </c>
       <c r="AE7" t="n">
-        <v>1176821.284261714</v>
+        <v>1468125.588298247</v>
       </c>
       <c r="AF7" t="n">
         <v>4.090347555396719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.99074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>1064507.112570821</v>
+        <v>1328009.742678266</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>863.0353157668454</v>
+        <v>1075.939066231662</v>
       </c>
       <c r="AB8" t="n">
-        <v>1180.842993463172</v>
+        <v>1472.147297499704</v>
       </c>
       <c r="AC8" t="n">
-        <v>1068.144995490596</v>
+        <v>1331.647625598041</v>
       </c>
       <c r="AD8" t="n">
-        <v>863035.3157668455</v>
+        <v>1075939.066231662</v>
       </c>
       <c r="AE8" t="n">
-        <v>1180842.993463172</v>
+        <v>1472147.297499704</v>
       </c>
       <c r="AF8" t="n">
         <v>4.094798907617197e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.94444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1068144.995490596</v>
+        <v>1331647.625598041</v>
       </c>
     </row>
     <row r="9">
@@ -5220,28 +5220,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>865.219796328194</v>
+        <v>1078.123546793011</v>
       </c>
       <c r="AB9" t="n">
-        <v>1183.831896139689</v>
+        <v>1475.136200176222</v>
       </c>
       <c r="AC9" t="n">
-        <v>1070.848641490618</v>
+        <v>1334.351271598063</v>
       </c>
       <c r="AD9" t="n">
-        <v>865219.796328194</v>
+        <v>1078123.546793011</v>
       </c>
       <c r="AE9" t="n">
-        <v>1183831.896139689</v>
+        <v>1475136.200176222</v>
       </c>
       <c r="AF9" t="n">
         <v>4.093908637173102e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.94444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>1070848.641490618</v>
+        <v>1334351.271598063</v>
       </c>
     </row>
   </sheetData>
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>907.8139319679896</v>
+        <v>1150.953960944537</v>
       </c>
       <c r="AB2" t="n">
-        <v>1242.111071642701</v>
+        <v>1574.785985869447</v>
       </c>
       <c r="AC2" t="n">
-        <v>1123.565734278959</v>
+        <v>1424.490621604079</v>
       </c>
       <c r="AD2" t="n">
-        <v>907813.9319679895</v>
+        <v>1150953.960944537</v>
       </c>
       <c r="AE2" t="n">
-        <v>1242111.071642701</v>
+        <v>1574785.985869447</v>
       </c>
       <c r="AF2" t="n">
         <v>4.893248292238316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.98148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>1123565.734278959</v>
+        <v>1424490.621604079</v>
       </c>
     </row>
     <row r="3">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>750.1699193174895</v>
+        <v>955.8890323649878</v>
       </c>
       <c r="AB3" t="n">
-        <v>1026.415578771291</v>
+        <v>1307.889544929616</v>
       </c>
       <c r="AC3" t="n">
-        <v>928.4559165166708</v>
+        <v>1183.066402396038</v>
       </c>
       <c r="AD3" t="n">
-        <v>750169.9193174895</v>
+        <v>955889.0323649878</v>
       </c>
       <c r="AE3" t="n">
-        <v>1026415.578771291</v>
+        <v>1307889.544929616</v>
       </c>
       <c r="AF3" t="n">
         <v>5.524087344938953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.3912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>928455.9165166707</v>
+        <v>1183066.402396038</v>
       </c>
     </row>
     <row r="4">
@@ -5729,28 +5729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>750.922593948147</v>
+        <v>956.6417069956453</v>
       </c>
       <c r="AB4" t="n">
-        <v>1027.445421406618</v>
+        <v>1308.919387564942</v>
       </c>
       <c r="AC4" t="n">
-        <v>929.3874724162752</v>
+        <v>1183.997958295642</v>
       </c>
       <c r="AD4" t="n">
-        <v>750922.593948147</v>
+        <v>956641.7069956453</v>
       </c>
       <c r="AE4" t="n">
-        <v>1027445.421406618</v>
+        <v>1308919.387564942</v>
       </c>
       <c r="AF4" t="n">
         <v>5.533407028908594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.32175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>929387.4724162752</v>
+        <v>1183997.958295642</v>
       </c>
     </row>
   </sheetData>
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1156.945833138649</v>
+        <v>1412.907906799875</v>
       </c>
       <c r="AB2" t="n">
-        <v>1582.984329748176</v>
+        <v>1933.202931181187</v>
       </c>
       <c r="AC2" t="n">
-        <v>1431.90652704947</v>
+        <v>1748.700756696609</v>
       </c>
       <c r="AD2" t="n">
-        <v>1156945.833138649</v>
+        <v>1412907.906799875</v>
       </c>
       <c r="AE2" t="n">
-        <v>1582984.329748176</v>
+        <v>1933202.931181187</v>
       </c>
       <c r="AF2" t="n">
         <v>3.840822660082095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.05092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1431906.52704947</v>
+        <v>1748700.756696609</v>
       </c>
     </row>
     <row r="3">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>869.5732612616312</v>
+        <v>1097.052448088782</v>
       </c>
       <c r="AB3" t="n">
-        <v>1189.788498922936</v>
+        <v>1501.035558013284</v>
       </c>
       <c r="AC3" t="n">
-        <v>1076.236754464376</v>
+        <v>1357.778831073133</v>
       </c>
       <c r="AD3" t="n">
-        <v>869573.2612616312</v>
+        <v>1097052.448088782</v>
       </c>
       <c r="AE3" t="n">
-        <v>1189788.498922936</v>
+        <v>1501035.558013284</v>
       </c>
       <c r="AF3" t="n">
         <v>4.619389606961216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.94212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1076236.754464376</v>
+        <v>1357778.831073133</v>
       </c>
     </row>
     <row r="4">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>790.2697820274313</v>
+        <v>998.8521594351862</v>
       </c>
       <c r="AB4" t="n">
-        <v>1081.281980012121</v>
+        <v>1366.673590786457</v>
       </c>
       <c r="AC4" t="n">
-        <v>978.0859454285535</v>
+        <v>1236.240181420229</v>
       </c>
       <c r="AD4" t="n">
-        <v>790269.7820274313</v>
+        <v>998852.1594351862</v>
       </c>
       <c r="AE4" t="n">
-        <v>1081281.980012121</v>
+        <v>1366673.590786457</v>
       </c>
       <c r="AF4" t="n">
         <v>4.870482379509193e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.61574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>978085.9454285535</v>
+        <v>1236240.181420228</v>
       </c>
     </row>
     <row r="5">
@@ -6344,28 +6344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>787.2697947102903</v>
+        <v>995.7506868915598</v>
       </c>
       <c r="AB5" t="n">
-        <v>1077.177265014709</v>
+        <v>1362.430019224955</v>
       </c>
       <c r="AC5" t="n">
-        <v>974.3729786694906</v>
+        <v>1232.401610372666</v>
       </c>
       <c r="AD5" t="n">
-        <v>787269.7947102903</v>
+        <v>995750.6868915597</v>
       </c>
       <c r="AE5" t="n">
-        <v>1077177.265014709</v>
+        <v>1362430.019224955</v>
       </c>
       <c r="AF5" t="n">
         <v>4.884471833979723e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>974372.9786694907</v>
+        <v>1232401.610372667</v>
       </c>
     </row>
   </sheetData>
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>753.2433031133085</v>
+        <v>975.2048088639991</v>
       </c>
       <c r="AB2" t="n">
-        <v>1030.620718068854</v>
+        <v>1334.31824248748</v>
       </c>
       <c r="AC2" t="n">
-        <v>932.2597232216248</v>
+        <v>1206.97278215189</v>
       </c>
       <c r="AD2" t="n">
-        <v>753243.3031133085</v>
+        <v>975204.8088639991</v>
       </c>
       <c r="AE2" t="n">
-        <v>1030620.718068854</v>
+        <v>1334318.24248748</v>
       </c>
       <c r="AF2" t="n">
         <v>5.994283634971689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.79861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>932259.7232216247</v>
+        <v>1206972.78215189</v>
       </c>
     </row>
     <row r="3">
@@ -6747,28 +6747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>724.8150945008199</v>
+        <v>937.5595224791143</v>
       </c>
       <c r="AB3" t="n">
-        <v>991.723988881198</v>
+        <v>1282.810300862858</v>
       </c>
       <c r="AC3" t="n">
-        <v>897.0752432757359</v>
+        <v>1160.380686184072</v>
       </c>
       <c r="AD3" t="n">
-        <v>724815.0945008199</v>
+        <v>937559.5224791144</v>
       </c>
       <c r="AE3" t="n">
-        <v>991723.988881198</v>
+        <v>1282810.300862858</v>
       </c>
       <c r="AF3" t="n">
         <v>6.158907016161652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.58333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>897075.243275736</v>
+        <v>1160380.686184072</v>
       </c>
     </row>
   </sheetData>
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1830.716733512866</v>
+        <v>2170.460907134242</v>
       </c>
       <c r="AB2" t="n">
-        <v>2504.867400314441</v>
+        <v>2969.720367118315</v>
       </c>
       <c r="AC2" t="n">
-        <v>2265.806371231907</v>
+        <v>2686.294423309255</v>
       </c>
       <c r="AD2" t="n">
-        <v>1830716.733512866</v>
+        <v>2170460.907134241</v>
       </c>
       <c r="AE2" t="n">
-        <v>2504867.400314441</v>
+        <v>2969720.367118315</v>
       </c>
       <c r="AF2" t="n">
         <v>2.4665651521236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.93981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2265806.371231907</v>
+        <v>2686294.423309255</v>
       </c>
     </row>
     <row r="3">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1211.719814951641</v>
+        <v>1464.117795702357</v>
       </c>
       <c r="AB3" t="n">
-        <v>1657.928508122245</v>
+        <v>2003.270560398414</v>
       </c>
       <c r="AC3" t="n">
-        <v>1499.698138224333</v>
+        <v>1812.081229721879</v>
       </c>
       <c r="AD3" t="n">
-        <v>1211719.814951641</v>
+        <v>1464117.795702357</v>
       </c>
       <c r="AE3" t="n">
-        <v>1657928.508122245</v>
+        <v>2003270.560398414</v>
       </c>
       <c r="AF3" t="n">
         <v>3.303619049653776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.72916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1499698.138224333</v>
+        <v>1812081.229721879</v>
       </c>
     </row>
     <row r="4">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1061.843791051135</v>
+        <v>1294.722429177712</v>
       </c>
       <c r="AB4" t="n">
-        <v>1452.861520158054</v>
+        <v>1771.496346723255</v>
       </c>
       <c r="AC4" t="n">
-        <v>1314.202455778119</v>
+        <v>1602.427221702726</v>
       </c>
       <c r="AD4" t="n">
-        <v>1061843.791051135</v>
+        <v>1294722.429177712</v>
       </c>
       <c r="AE4" t="n">
-        <v>1452861.520158054</v>
+        <v>1771496.346723255</v>
       </c>
       <c r="AF4" t="n">
         <v>3.625640822375988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.22685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1314202.455778119</v>
+        <v>1602427.221702726</v>
       </c>
     </row>
     <row r="5">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>987.4386849064855</v>
+        <v>1200.96779647297</v>
       </c>
       <c r="AB5" t="n">
-        <v>1351.057171409329</v>
+        <v>1643.217122094148</v>
       </c>
       <c r="AC5" t="n">
-        <v>1222.114171190672</v>
+        <v>1486.390786231198</v>
       </c>
       <c r="AD5" t="n">
-        <v>987438.6849064855</v>
+        <v>1200967.79647297</v>
       </c>
       <c r="AE5" t="n">
-        <v>1351057.171409329</v>
+        <v>1643217.122094148</v>
       </c>
       <c r="AF5" t="n">
         <v>3.790705939688632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.21296296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>1222114.171190672</v>
+        <v>1486390.786231198</v>
       </c>
     </row>
     <row r="6">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>927.5424011275584</v>
+        <v>1150.745264944232</v>
       </c>
       <c r="AB6" t="n">
-        <v>1269.104433505455</v>
+        <v>1574.500438794811</v>
       </c>
       <c r="AC6" t="n">
-        <v>1147.982887570953</v>
+        <v>1424.232326741479</v>
       </c>
       <c r="AD6" t="n">
-        <v>927542.4011275584</v>
+        <v>1150745.264944232</v>
       </c>
       <c r="AE6" t="n">
-        <v>1269104.433505455</v>
+        <v>1574500.438794811</v>
       </c>
       <c r="AF6" t="n">
         <v>3.902197290855945e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.95138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1147982.887570953</v>
+        <v>1424232.326741479</v>
       </c>
     </row>
     <row r="7">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>894.1584192546181</v>
+        <v>1097.978602122276</v>
       </c>
       <c r="AB7" t="n">
-        <v>1223.426996709563</v>
+        <v>1502.302762820942</v>
       </c>
       <c r="AC7" t="n">
-        <v>1106.664841234176</v>
+        <v>1358.925095632481</v>
       </c>
       <c r="AD7" t="n">
-        <v>894158.4192546181</v>
+        <v>1097978.602122276</v>
       </c>
       <c r="AE7" t="n">
-        <v>1223426.996709563</v>
+        <v>1502302.762820943</v>
       </c>
       <c r="AF7" t="n">
         <v>3.973001538545317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.17592592592592</v>
       </c>
       <c r="AH7" t="n">
-        <v>1106664.841234176</v>
+        <v>1358925.095632481</v>
       </c>
     </row>
     <row r="8">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>874.0527292651569</v>
+        <v>1087.580829801784</v>
       </c>
       <c r="AB8" t="n">
-        <v>1195.917504665541</v>
+        <v>1488.076072014706</v>
       </c>
       <c r="AC8" t="n">
-        <v>1081.780816501021</v>
+        <v>1346.056180229506</v>
       </c>
       <c r="AD8" t="n">
-        <v>874052.7292651569</v>
+        <v>1087580.829801784</v>
       </c>
       <c r="AE8" t="n">
-        <v>1195917.504665541</v>
+        <v>1488076.072014706</v>
       </c>
       <c r="AF8" t="n">
         <v>3.997471718217103e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.9212962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>1081780.816501021</v>
+        <v>1346056.180229506</v>
       </c>
     </row>
     <row r="9">
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>876.1883944857835</v>
+        <v>1089.716495022411</v>
       </c>
       <c r="AB9" t="n">
-        <v>1198.839616039302</v>
+        <v>1490.998183388467</v>
       </c>
       <c r="AC9" t="n">
-        <v>1084.424045666479</v>
+        <v>1348.699409394965</v>
       </c>
       <c r="AD9" t="n">
-        <v>876188.3944857835</v>
+        <v>1089716.495022411</v>
       </c>
       <c r="AE9" t="n">
-        <v>1198839.616039302</v>
+        <v>1490998.183388467</v>
       </c>
       <c r="AF9" t="n">
         <v>3.996168572554109e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.93287037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1084424.045666479</v>
+        <v>1348699.409394965</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>714.0445186933198</v>
+        <v>934.5246285708421</v>
       </c>
       <c r="AB2" t="n">
-        <v>976.9872118971068</v>
+        <v>1278.657825127491</v>
       </c>
       <c r="AC2" t="n">
-        <v>883.7449236038101</v>
+        <v>1156.624516904851</v>
       </c>
       <c r="AD2" t="n">
-        <v>714044.5186933198</v>
+        <v>934524.6285708421</v>
       </c>
       <c r="AE2" t="n">
-        <v>976987.2118971068</v>
+        <v>1278657.825127491</v>
       </c>
       <c r="AF2" t="n">
         <v>6.558330735843839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.81018518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>883744.9236038101</v>
+        <v>1156624.516904851</v>
       </c>
     </row>
     <row r="3">
@@ -8189,28 +8189,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>716.0186331243222</v>
+        <v>936.4987430018447</v>
       </c>
       <c r="AB3" t="n">
-        <v>979.6882823533864</v>
+        <v>1281.35889558377</v>
       </c>
       <c r="AC3" t="n">
-        <v>886.1882076867186</v>
+        <v>1159.06780098776</v>
       </c>
       <c r="AD3" t="n">
-        <v>716018.6331243222</v>
+        <v>936498.7430018446</v>
       </c>
       <c r="AE3" t="n">
-        <v>979688.2823533864</v>
+        <v>1281358.89558377</v>
       </c>
       <c r="AF3" t="n">
         <v>6.571827379751702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.70601851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>886188.2076867186</v>
+        <v>1159067.80098776</v>
       </c>
     </row>
   </sheetData>
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1416.41638412032</v>
+        <v>1713.589810574144</v>
       </c>
       <c r="AB2" t="n">
-        <v>1938.003384634117</v>
+        <v>2344.609177074529</v>
       </c>
       <c r="AC2" t="n">
-        <v>1753.04306160947</v>
+        <v>2120.842967894182</v>
       </c>
       <c r="AD2" t="n">
-        <v>1416416.38412032</v>
+        <v>1713589.810574144</v>
       </c>
       <c r="AE2" t="n">
-        <v>1938003.384634117</v>
+        <v>2344609.177074529</v>
       </c>
       <c r="AF2" t="n">
         <v>3.135664708699637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.54861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1753043.06160947</v>
+        <v>2120842.967894183</v>
       </c>
     </row>
     <row r="3">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1019.964699956159</v>
+        <v>1249.985865535907</v>
       </c>
       <c r="AB3" t="n">
-        <v>1395.560700146804</v>
+        <v>1710.285806710643</v>
       </c>
       <c r="AC3" t="n">
-        <v>1262.370345606536</v>
+        <v>1547.058529719384</v>
       </c>
       <c r="AD3" t="n">
-        <v>1019964.699956159</v>
+        <v>1249985.865535907</v>
       </c>
       <c r="AE3" t="n">
-        <v>1395560.700146804</v>
+        <v>1710285.806710643</v>
       </c>
       <c r="AF3" t="n">
         <v>3.940111543666264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.39583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1262370.345606536</v>
+        <v>1547058.529719384</v>
       </c>
     </row>
     <row r="4">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>908.4425091149409</v>
+        <v>1119.320952546284</v>
       </c>
       <c r="AB4" t="n">
-        <v>1242.971118626026</v>
+        <v>1531.504308229119</v>
       </c>
       <c r="AC4" t="n">
-        <v>1124.343699585279</v>
+        <v>1385.339686531528</v>
       </c>
       <c r="AD4" t="n">
-        <v>908442.5091149409</v>
+        <v>1119320.952546284</v>
       </c>
       <c r="AE4" t="n">
-        <v>1242971.118626026</v>
+        <v>1531504.308229119</v>
       </c>
       <c r="AF4" t="n">
         <v>4.242464806547825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.0162037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1124343.699585279</v>
+        <v>1385339.686531528</v>
       </c>
     </row>
     <row r="5">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>843.1281986685469</v>
+        <v>1053.938311262328</v>
       </c>
       <c r="AB5" t="n">
-        <v>1153.605197609256</v>
+        <v>1442.044893945854</v>
       </c>
       <c r="AC5" t="n">
-        <v>1043.506736644492</v>
+        <v>1304.418153190381</v>
       </c>
       <c r="AD5" t="n">
-        <v>843128.198668547</v>
+        <v>1053938.311262328</v>
       </c>
       <c r="AE5" t="n">
-        <v>1153605.197609256</v>
+        <v>1442044.893945854</v>
       </c>
       <c r="AF5" t="n">
         <v>4.39686826043131e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.46527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1043506.736644492</v>
+        <v>1304418.153190381</v>
       </c>
     </row>
     <row r="6">
@@ -8910,28 +8910,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>829.1282432846283</v>
+        <v>1030.418242932378</v>
       </c>
       <c r="AB6" t="n">
-        <v>1134.449841018538</v>
+        <v>1409.863698824634</v>
       </c>
       <c r="AC6" t="n">
-        <v>1026.17954040208</v>
+        <v>1275.308286164939</v>
       </c>
       <c r="AD6" t="n">
-        <v>829128.2432846283</v>
+        <v>1030418.242932378</v>
       </c>
       <c r="AE6" t="n">
-        <v>1134449.841018538</v>
+        <v>1409863.698824634</v>
       </c>
       <c r="AF6" t="n">
         <v>4.435751470865919e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.0949074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1026179.54040208</v>
+        <v>1275308.286164939</v>
       </c>
     </row>
   </sheetData>
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1612.587144583013</v>
+        <v>1931.00479804864</v>
       </c>
       <c r="AB2" t="n">
-        <v>2206.412873542325</v>
+        <v>2642.085954609436</v>
       </c>
       <c r="AC2" t="n">
-        <v>1995.835925611362</v>
+        <v>2389.928979292437</v>
       </c>
       <c r="AD2" t="n">
-        <v>1612587.144583013</v>
+        <v>1931004.79804864</v>
       </c>
       <c r="AE2" t="n">
-        <v>2206412.873542325</v>
+        <v>2642085.954609436</v>
       </c>
       <c r="AF2" t="n">
         <v>2.774300205083222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.53009259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>1995835.925611362</v>
+        <v>2389928.979292437</v>
       </c>
     </row>
     <row r="3">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1119.179208313712</v>
+        <v>1360.354983922976</v>
       </c>
       <c r="AB3" t="n">
-        <v>1531.310367516801</v>
+        <v>1861.297703629687</v>
       </c>
       <c r="AC3" t="n">
-        <v>1385.164255248596</v>
+        <v>1683.658063143003</v>
       </c>
       <c r="AD3" t="n">
-        <v>1119179.208313712</v>
+        <v>1360354.983922976</v>
       </c>
       <c r="AE3" t="n">
-        <v>1531310.367516801</v>
+        <v>1861297.703629687</v>
       </c>
       <c r="AF3" t="n">
         <v>3.595457734084085e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.02777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1385164.255248596</v>
+        <v>1683658.063143003</v>
       </c>
     </row>
     <row r="4">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>986.4150745839256</v>
+        <v>1208.288669326329</v>
       </c>
       <c r="AB4" t="n">
-        <v>1349.656622607503</v>
+        <v>1653.23386330623</v>
       </c>
       <c r="AC4" t="n">
-        <v>1220.847288800809</v>
+        <v>1495.451543720583</v>
       </c>
       <c r="AD4" t="n">
-        <v>986415.0745839257</v>
+        <v>1208288.669326329</v>
       </c>
       <c r="AE4" t="n">
-        <v>1349656.622607503</v>
+        <v>1653233.86330623</v>
       </c>
       <c r="AF4" t="n">
         <v>3.906133060338121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.12731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>1220847.288800809</v>
+        <v>1495451.543720583</v>
       </c>
     </row>
     <row r="5">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>914.348526083739</v>
+        <v>1126.571030392712</v>
       </c>
       <c r="AB5" t="n">
-        <v>1251.051991597815</v>
+        <v>1541.424184589464</v>
       </c>
       <c r="AC5" t="n">
-        <v>1131.653345382217</v>
+        <v>1394.312823814675</v>
       </c>
       <c r="AD5" t="n">
-        <v>914348.526083739</v>
+        <v>1126571.030392712</v>
       </c>
       <c r="AE5" t="n">
-        <v>1251051.991597815</v>
+        <v>1541424.184589464</v>
       </c>
       <c r="AF5" t="n">
         <v>4.075329279685294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.25231481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>1131653.345382217</v>
+        <v>1394312.823814675</v>
       </c>
     </row>
     <row r="6">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>870.6252752913513</v>
+        <v>1082.813614181544</v>
       </c>
       <c r="AB6" t="n">
-        <v>1191.227910929982</v>
+        <v>1481.553357288383</v>
       </c>
       <c r="AC6" t="n">
-        <v>1077.538791009698</v>
+        <v>1340.155984241976</v>
       </c>
       <c r="AD6" t="n">
-        <v>870625.2752913513</v>
+        <v>1082813.614181544</v>
       </c>
       <c r="AE6" t="n">
-        <v>1191227.910929983</v>
+        <v>1481553.357288383</v>
       </c>
       <c r="AF6" t="n">
         <v>4.167161251122149e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.30324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1077538.791009698</v>
+        <v>1340155.984241976</v>
       </c>
     </row>
     <row r="7">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>849.1500493335419</v>
+        <v>1061.405708031439</v>
       </c>
       <c r="AB7" t="n">
-        <v>1161.844559354404</v>
+        <v>1452.262115643647</v>
       </c>
       <c r="AC7" t="n">
-        <v>1050.9597452687</v>
+        <v>1313.660257589297</v>
       </c>
       <c r="AD7" t="n">
-        <v>849150.0493335419</v>
+        <v>1061405.708031439</v>
       </c>
       <c r="AE7" t="n">
-        <v>1161844.559354404</v>
+        <v>1452262.115643647</v>
       </c>
       <c r="AF7" t="n">
         <v>4.197467324614577e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.99074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>1050959.7452687</v>
+        <v>1313660.257589297</v>
       </c>
     </row>
     <row r="8">
@@ -9843,28 +9843,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>849.7012146203024</v>
+        <v>1061.9568733182</v>
       </c>
       <c r="AB8" t="n">
-        <v>1162.598688015446</v>
+        <v>1453.016244304688</v>
       </c>
       <c r="AC8" t="n">
-        <v>1051.641900948758</v>
+        <v>1314.342413269355</v>
       </c>
       <c r="AD8" t="n">
-        <v>849701.2146203024</v>
+        <v>1061956.8733182</v>
       </c>
       <c r="AE8" t="n">
-        <v>1162598.688015446</v>
+        <v>1453016.244304688</v>
       </c>
       <c r="AF8" t="n">
         <v>4.204472748637953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.9212962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>1051641.900948758</v>
+        <v>1314342.413269355</v>
       </c>
     </row>
   </sheetData>
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2076.454918371462</v>
+        <v>2437.645647093218</v>
       </c>
       <c r="AB2" t="n">
-        <v>2841.097226041554</v>
+        <v>3335.294315689194</v>
       </c>
       <c r="AC2" t="n">
-        <v>2569.946894293148</v>
+        <v>3016.978507314665</v>
       </c>
       <c r="AD2" t="n">
-        <v>2076454.918371462</v>
+        <v>2437645.647093218</v>
       </c>
       <c r="AE2" t="n">
-        <v>2841097.226041554</v>
+        <v>3335294.315689194</v>
       </c>
       <c r="AF2" t="n">
         <v>2.207309216892156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.5925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2569946.894293148</v>
+        <v>3016978.507314664</v>
       </c>
     </row>
     <row r="3">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1315.681470696607</v>
+        <v>1579.142364424163</v>
       </c>
       <c r="AB3" t="n">
-        <v>1800.173431977061</v>
+        <v>2160.652249849419</v>
       </c>
       <c r="AC3" t="n">
-        <v>1628.36740618845</v>
+        <v>1954.442631618269</v>
       </c>
       <c r="AD3" t="n">
-        <v>1315681.470696607</v>
+        <v>1579142.364424163</v>
       </c>
       <c r="AE3" t="n">
-        <v>1800173.431977061</v>
+        <v>2160652.249849419</v>
       </c>
       <c r="AF3" t="n">
         <v>3.053047551437702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.48842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>1628367.40618845</v>
+        <v>1954442.631618269</v>
       </c>
     </row>
     <row r="4">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1139.247596688865</v>
+        <v>1373.454150904888</v>
       </c>
       <c r="AB4" t="n">
-        <v>1558.768821846494</v>
+        <v>1879.2205617888</v>
       </c>
       <c r="AC4" t="n">
-        <v>1410.002113235246</v>
+        <v>1699.8703888743</v>
       </c>
       <c r="AD4" t="n">
-        <v>1139247.596688865</v>
+        <v>1373454.150904888</v>
       </c>
       <c r="AE4" t="n">
-        <v>1558768.821846494</v>
+        <v>1879220.5617888</v>
       </c>
       <c r="AF4" t="n">
         <v>3.378523214314863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.43055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>1410002.113235246</v>
+        <v>1699870.3888743</v>
       </c>
     </row>
     <row r="5">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1057.280033324996</v>
+        <v>1281.723752564248</v>
       </c>
       <c r="AB5" t="n">
-        <v>1446.617185498368</v>
+        <v>1753.710983919574</v>
       </c>
       <c r="AC5" t="n">
-        <v>1308.554071654375</v>
+        <v>1586.339268963114</v>
       </c>
       <c r="AD5" t="n">
-        <v>1057280.033324996</v>
+        <v>1281723.752564248</v>
       </c>
       <c r="AE5" t="n">
-        <v>1446617.185498368</v>
+        <v>1753710.983919574</v>
       </c>
       <c r="AF5" t="n">
         <v>3.551713369252902e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.11574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>1308554.071654375</v>
+        <v>1586339.268963114</v>
       </c>
     </row>
     <row r="6">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>995.98042284069</v>
+        <v>1220.457296468866</v>
       </c>
       <c r="AB6" t="n">
-        <v>1362.74435408579</v>
+        <v>1669.88351580459</v>
       </c>
       <c r="AC6" t="n">
-        <v>1232.685945555555</v>
+        <v>1510.512176752434</v>
       </c>
       <c r="AD6" t="n">
-        <v>995980.42284069</v>
+        <v>1220457.296468866</v>
       </c>
       <c r="AE6" t="n">
-        <v>1362744.35408579</v>
+        <v>1669883.51580459</v>
       </c>
       <c r="AF6" t="n">
         <v>3.666204382948951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.7037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1232685.945555555</v>
+        <v>1510512.176752434</v>
       </c>
     </row>
     <row r="7">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>952.3960609209121</v>
+        <v>1167.144264991098</v>
       </c>
       <c r="AB7" t="n">
-        <v>1303.110307300807</v>
+        <v>1596.938274131755</v>
       </c>
       <c r="AC7" t="n">
-        <v>1178.74328849882</v>
+        <v>1444.528726565564</v>
       </c>
       <c r="AD7" t="n">
-        <v>952396.0609209121</v>
+        <v>1167144.264991098</v>
       </c>
       <c r="AE7" t="n">
-        <v>1303110.307300807</v>
+        <v>1596938.274131755</v>
       </c>
       <c r="AF7" t="n">
         <v>3.744146874739611e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.80092592592592</v>
       </c>
       <c r="AH7" t="n">
-        <v>1178743.288498821</v>
+        <v>1444528.726565564</v>
       </c>
     </row>
     <row r="8">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>929.3823463667294</v>
+        <v>1134.33456107122</v>
       </c>
       <c r="AB8" t="n">
-        <v>1271.621927754344</v>
+        <v>1552.046589766599</v>
       </c>
       <c r="AC8" t="n">
-        <v>1150.260115702054</v>
+        <v>1403.921441550344</v>
       </c>
       <c r="AD8" t="n">
-        <v>929382.3463667294</v>
+        <v>1134334.56107122</v>
       </c>
       <c r="AE8" t="n">
-        <v>1271621.927754344</v>
+        <v>1552046.589766599</v>
       </c>
       <c r="AF8" t="n">
         <v>3.795370181955498e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.22222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1150260.115702054</v>
+        <v>1403921.441550344</v>
       </c>
     </row>
     <row r="9">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>902.3410687167479</v>
+        <v>1117.055107368153</v>
       </c>
       <c r="AB9" t="n">
-        <v>1234.622858696665</v>
+        <v>1528.404078894366</v>
       </c>
       <c r="AC9" t="n">
-        <v>1116.79218586672</v>
+        <v>1382.535338733285</v>
       </c>
       <c r="AD9" t="n">
-        <v>902341.0687167479</v>
+        <v>1117055.107368153</v>
       </c>
       <c r="AE9" t="n">
-        <v>1234622.858696665</v>
+        <v>1528404.078894366</v>
       </c>
       <c r="AF9" t="n">
         <v>3.823058456126248e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.90972222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1116792.18586672</v>
+        <v>1382535.338733285</v>
       </c>
     </row>
     <row r="10">
@@ -10988,28 +10988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>902.2515329701456</v>
+        <v>1116.96557162155</v>
       </c>
       <c r="AB10" t="n">
-        <v>1234.500351938126</v>
+        <v>1528.281572135826</v>
       </c>
       <c r="AC10" t="n">
-        <v>1116.681370981277</v>
+        <v>1382.42452384784</v>
       </c>
       <c r="AD10" t="n">
-        <v>902251.5329701456</v>
+        <v>1116965.57162155</v>
       </c>
       <c r="AE10" t="n">
-        <v>1234500.351938126</v>
+        <v>1528281.572135826</v>
       </c>
       <c r="AF10" t="n">
         <v>3.828457669589544e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>41.85185185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>1116681.370981277</v>
+        <v>1382424.52384784</v>
       </c>
     </row>
   </sheetData>
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1232.839695222148</v>
+        <v>1508.843882071562</v>
       </c>
       <c r="AB2" t="n">
-        <v>1686.825660051709</v>
+        <v>2064.466764944431</v>
       </c>
       <c r="AC2" t="n">
-        <v>1525.837386531056</v>
+        <v>1867.436954395436</v>
       </c>
       <c r="AD2" t="n">
-        <v>1232839.695222148</v>
+        <v>1508843.882071562</v>
       </c>
       <c r="AE2" t="n">
-        <v>1686825.660051709</v>
+        <v>2064466.764944431</v>
       </c>
       <c r="AF2" t="n">
         <v>3.581883891066249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.76388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1525837.386531056</v>
+        <v>1867436.954395436</v>
       </c>
     </row>
     <row r="3">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>920.5820572437867</v>
+        <v>1148.987534147171</v>
       </c>
       <c r="AB3" t="n">
-        <v>1259.580983934979</v>
+        <v>1572.095433972663</v>
       </c>
       <c r="AC3" t="n">
-        <v>1139.368342661237</v>
+        <v>1422.056852204111</v>
       </c>
       <c r="AD3" t="n">
-        <v>920582.0572437868</v>
+        <v>1148987.534147171</v>
       </c>
       <c r="AE3" t="n">
-        <v>1259580.983934978</v>
+        <v>1572095.433972663</v>
       </c>
       <c r="AF3" t="n">
         <v>4.365604366605029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.75231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1139368.342661237</v>
+        <v>1422056.85220411</v>
       </c>
     </row>
     <row r="4">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>820.7216107035791</v>
+        <v>1039.573180198976</v>
       </c>
       <c r="AB4" t="n">
-        <v>1122.947515446692</v>
+        <v>1422.389887880121</v>
       </c>
       <c r="AC4" t="n">
-        <v>1015.774980639196</v>
+        <v>1286.638993317587</v>
       </c>
       <c r="AD4" t="n">
-        <v>820721.6107035792</v>
+        <v>1039573.180198976</v>
       </c>
       <c r="AE4" t="n">
-        <v>1122947.515446692</v>
+        <v>1422389.887880121</v>
       </c>
       <c r="AF4" t="n">
         <v>4.651236911642836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.95138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1015774.980639196</v>
+        <v>1286638.993317587</v>
       </c>
     </row>
     <row r="5">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>803.1836737766261</v>
+        <v>1012.482346893893</v>
       </c>
       <c r="AB5" t="n">
-        <v>1098.951336424063</v>
+        <v>1385.323014588891</v>
       </c>
       <c r="AC5" t="n">
-        <v>994.0689632636381</v>
+        <v>1253.109730389589</v>
       </c>
       <c r="AD5" t="n">
-        <v>803183.673776626</v>
+        <v>1012482.346893893</v>
       </c>
       <c r="AE5" t="n">
-        <v>1098951.336424063</v>
+        <v>1385323.014588891</v>
       </c>
       <c r="AF5" t="n">
         <v>4.71509433863014e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.36111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>994068.9632636381</v>
+        <v>1253109.730389589</v>
       </c>
     </row>
     <row r="6">
@@ -11709,28 +11709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>805.1492230878296</v>
+        <v>1014.447896205097</v>
       </c>
       <c r="AB6" t="n">
-        <v>1101.640687705568</v>
+        <v>1388.012365870396</v>
       </c>
       <c r="AC6" t="n">
-        <v>996.5016466333637</v>
+        <v>1255.542413759315</v>
       </c>
       <c r="AD6" t="n">
-        <v>805149.2230878295</v>
+        <v>1014447.896205097</v>
       </c>
       <c r="AE6" t="n">
-        <v>1101640.687705568</v>
+        <v>1388012.365870396</v>
       </c>
       <c r="AF6" t="n">
         <v>4.713541049865584e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.38425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>996501.6466333638</v>
+        <v>1255542.413759315</v>
       </c>
     </row>
   </sheetData>
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.8677461744447</v>
+        <v>1233.257848340481</v>
       </c>
       <c r="AB2" t="n">
-        <v>1353.012476081885</v>
+        <v>1687.397795595827</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.882864329566</v>
+        <v>1526.354918261841</v>
       </c>
       <c r="AD2" t="n">
-        <v>988867.7461744447</v>
+        <v>1233257.848340481</v>
       </c>
       <c r="AE2" t="n">
-        <v>1353012.476081885</v>
+        <v>1687397.795595827</v>
       </c>
       <c r="AF2" t="n">
         <v>4.488494713172626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223882.864329566</v>
+        <v>1526354.918261841</v>
       </c>
     </row>
     <row r="3">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>779.8277190896985</v>
+        <v>995.9808557310137</v>
       </c>
       <c r="AB3" t="n">
-        <v>1066.99468882941</v>
+        <v>1362.744946385429</v>
       </c>
       <c r="AC3" t="n">
-        <v>965.1622132639817</v>
+        <v>1232.686481326947</v>
       </c>
       <c r="AD3" t="n">
-        <v>779827.7190896985</v>
+        <v>995980.8557310137</v>
       </c>
       <c r="AE3" t="n">
-        <v>1066994.68882941</v>
+        <v>1362744.946385429</v>
       </c>
       <c r="AF3" t="n">
         <v>5.214401583757863e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.56481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>965162.2132639817</v>
+        <v>1232686.481326947</v>
       </c>
     </row>
     <row r="4">
@@ -12218,28 +12218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>767.0871983004666</v>
+        <v>973.8062471842114</v>
       </c>
       <c r="AB4" t="n">
-        <v>1049.562546213475</v>
+        <v>1332.404668697008</v>
       </c>
       <c r="AC4" t="n">
-        <v>949.3937698731457</v>
+        <v>1205.241837158262</v>
       </c>
       <c r="AD4" t="n">
-        <v>767087.1983004666</v>
+        <v>973806.2471842114</v>
       </c>
       <c r="AE4" t="n">
-        <v>1049562.546213475</v>
+        <v>1332404.668697008</v>
       </c>
       <c r="AF4" t="n">
         <v>5.281124572673511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.00925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>949393.7698731457</v>
+        <v>1205241.837158262</v>
       </c>
     </row>
   </sheetData>
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>832.5953117521194</v>
+        <v>1055.837044549289</v>
       </c>
       <c r="AB2" t="n">
-        <v>1139.193637052025</v>
+        <v>1444.642824595275</v>
       </c>
       <c r="AC2" t="n">
-        <v>1030.47059520009</v>
+        <v>1306.76814098484</v>
       </c>
       <c r="AD2" t="n">
-        <v>832595.3117521195</v>
+        <v>1055837.044549289</v>
       </c>
       <c r="AE2" t="n">
-        <v>1139193.637052025</v>
+        <v>1444642.824595275</v>
       </c>
       <c r="AF2" t="n">
         <v>5.403093436595526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.21064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1030470.59520009</v>
+        <v>1306768.14098484</v>
       </c>
     </row>
     <row r="3">
@@ -21874,28 +21874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>733.0219333503372</v>
+        <v>946.9908531187785</v>
       </c>
       <c r="AB3" t="n">
-        <v>1002.952947855284</v>
+        <v>1295.714663524989</v>
       </c>
       <c r="AC3" t="n">
-        <v>907.2325261652784</v>
+        <v>1172.053474585116</v>
       </c>
       <c r="AD3" t="n">
-        <v>733021.9333503372</v>
+        <v>946990.8531187786</v>
       </c>
       <c r="AE3" t="n">
-        <v>1002952.947855284</v>
+        <v>1295714.663524989</v>
       </c>
       <c r="AF3" t="n">
         <v>5.813901323926824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.87731481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>907232.5261652784</v>
+        <v>1172053.474585116</v>
       </c>
     </row>
   </sheetData>
@@ -22171,28 +22171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.57976828507</v>
+        <v>939.4543237522321</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.6148316514259</v>
+        <v>1285.402851557471</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.6943985956118</v>
+        <v>1162.725807479058</v>
       </c>
       <c r="AD2" t="n">
-        <v>711579.7682850701</v>
+        <v>939454.3237522321</v>
       </c>
       <c r="AE2" t="n">
-        <v>973614.8316514259</v>
+        <v>1285402.851557471</v>
       </c>
       <c r="AF2" t="n">
         <v>7.053103553405122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.83564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>880694.3985956118</v>
+        <v>1162725.807479058</v>
       </c>
     </row>
   </sheetData>
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1512.220722585828</v>
+        <v>1820.006317899216</v>
       </c>
       <c r="AB2" t="n">
-        <v>2069.087107111739</v>
+        <v>2490.212937161657</v>
       </c>
       <c r="AC2" t="n">
-        <v>1871.616337590988</v>
+        <v>2252.550509474756</v>
       </c>
       <c r="AD2" t="n">
-        <v>1512220.722585828</v>
+        <v>1820006.317899216</v>
       </c>
       <c r="AE2" t="n">
-        <v>2069087.107111739</v>
+        <v>2490212.937161657</v>
       </c>
       <c r="AF2" t="n">
         <v>2.946858913797117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.50462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>1871616.337590988</v>
+        <v>2252550.509474756</v>
       </c>
     </row>
     <row r="3">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1067.845051553125</v>
+        <v>1298.668176358633</v>
       </c>
       <c r="AB3" t="n">
-        <v>1461.072709533803</v>
+        <v>1776.895092090272</v>
       </c>
       <c r="AC3" t="n">
-        <v>1321.629980764323</v>
+        <v>1607.3107183891</v>
       </c>
       <c r="AD3" t="n">
-        <v>1067845.051553125</v>
+        <v>1298668.176358633</v>
       </c>
       <c r="AE3" t="n">
-        <v>1461072.709533803</v>
+        <v>1776895.092090272</v>
       </c>
       <c r="AF3" t="n">
         <v>3.765978897753369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1321629.980764323</v>
+        <v>1607310.7183891</v>
       </c>
     </row>
     <row r="4">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>942.2507762506397</v>
+        <v>1163.486620252854</v>
       </c>
       <c r="AB4" t="n">
-        <v>1289.229081236569</v>
+        <v>1591.933723236994</v>
       </c>
       <c r="AC4" t="n">
-        <v>1166.18686716773</v>
+        <v>1440.001802984267</v>
       </c>
       <c r="AD4" t="n">
-        <v>942250.7762506397</v>
+        <v>1163486.620252854</v>
       </c>
       <c r="AE4" t="n">
-        <v>1289229.081236569</v>
+        <v>1591933.723236993</v>
       </c>
       <c r="AF4" t="n">
         <v>4.067883567810272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.54861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1166186.86716773</v>
+        <v>1440001.802984267</v>
       </c>
     </row>
     <row r="5">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>872.2230881133178</v>
+        <v>1083.838496923315</v>
       </c>
       <c r="AB5" t="n">
-        <v>1193.414108923524</v>
+        <v>1482.95564707031</v>
       </c>
       <c r="AC5" t="n">
-        <v>1079.516341335084</v>
+        <v>1341.424441455242</v>
       </c>
       <c r="AD5" t="n">
-        <v>872223.0881133177</v>
+        <v>1083838.496923315</v>
       </c>
       <c r="AE5" t="n">
-        <v>1193414.108923524</v>
+        <v>1482955.64707031</v>
       </c>
       <c r="AF5" t="n">
         <v>4.23261578404464e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.82407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>1079516.341335084</v>
+        <v>1341424.441455242</v>
       </c>
     </row>
     <row r="6">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>843.3074718724171</v>
+        <v>1045.269291101274</v>
       </c>
       <c r="AB6" t="n">
-        <v>1153.850487115767</v>
+        <v>1430.183558111322</v>
       </c>
       <c r="AC6" t="n">
-        <v>1043.728616064767</v>
+        <v>1293.688846600407</v>
       </c>
       <c r="AD6" t="n">
-        <v>843307.471872417</v>
+        <v>1045269.291101274</v>
       </c>
       <c r="AE6" t="n">
-        <v>1153850.487115767</v>
+        <v>1430183.558111322</v>
       </c>
       <c r="AF6" t="n">
         <v>4.30856172023634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.06018518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>1043728.616064767</v>
+        <v>1293688.846600407</v>
       </c>
     </row>
     <row r="7">
@@ -22998,28 +22998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>843.3599632213203</v>
+        <v>1045.321782450177</v>
       </c>
       <c r="AB7" t="n">
-        <v>1153.922308095091</v>
+        <v>1430.255379090646</v>
       </c>
       <c r="AC7" t="n">
-        <v>1043.793582550626</v>
+        <v>1293.753813086266</v>
       </c>
       <c r="AD7" t="n">
-        <v>843359.9632213203</v>
+        <v>1045321.782450177</v>
       </c>
       <c r="AE7" t="n">
-        <v>1153922.308095091</v>
+        <v>1430255.379090646</v>
       </c>
       <c r="AF7" t="n">
         <v>4.31435553392519e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.00231481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>1043793.582550626</v>
+        <v>1293753.813086266</v>
       </c>
     </row>
   </sheetData>
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1955.166184549651</v>
+        <v>2305.538370450945</v>
       </c>
       <c r="AB2" t="n">
-        <v>2675.144629545262</v>
+        <v>3154.539311625511</v>
       </c>
       <c r="AC2" t="n">
-        <v>2419.83258069053</v>
+        <v>2853.474507147584</v>
       </c>
       <c r="AD2" t="n">
-        <v>1955166.184549651</v>
+        <v>2305538.370450945</v>
       </c>
       <c r="AE2" t="n">
-        <v>2675144.629545262</v>
+        <v>3154539.311625511</v>
       </c>
       <c r="AF2" t="n">
         <v>2.332808300375199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.19675925925925</v>
       </c>
       <c r="AH2" t="n">
-        <v>2419832.58069053</v>
+        <v>2853474.507147584</v>
       </c>
     </row>
     <row r="3">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1262.018614946052</v>
+        <v>1524.831161518408</v>
       </c>
       <c r="AB3" t="n">
-        <v>1726.749545301042</v>
+        <v>2086.341265992597</v>
       </c>
       <c r="AC3" t="n">
-        <v>1561.950992205718</v>
+        <v>1887.223783764621</v>
       </c>
       <c r="AD3" t="n">
-        <v>1262018.614946052</v>
+        <v>1524831.161518408</v>
       </c>
       <c r="AE3" t="n">
-        <v>1726749.545301042</v>
+        <v>2086341.265992597</v>
       </c>
       <c r="AF3" t="n">
         <v>3.175686874120275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.57407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1561950.992205718</v>
+        <v>1887223.783764621</v>
       </c>
     </row>
     <row r="4">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1096.470969878854</v>
+        <v>1330.108695491112</v>
       </c>
       <c r="AB4" t="n">
-        <v>1500.239953873453</v>
+        <v>1819.913397425139</v>
       </c>
       <c r="AC4" t="n">
-        <v>1357.05915827577</v>
+        <v>1646.223417039379</v>
       </c>
       <c r="AD4" t="n">
-        <v>1096470.969878854</v>
+        <v>1330108.695491112</v>
       </c>
       <c r="AE4" t="n">
-        <v>1500239.953873453</v>
+        <v>1819913.39742514</v>
       </c>
       <c r="AF4" t="n">
         <v>3.495321371029814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.85185185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1357059.15827577</v>
+        <v>1646223.417039379</v>
       </c>
     </row>
     <row r="5">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1014.567705642544</v>
+        <v>1238.469102461841</v>
       </c>
       <c r="AB5" t="n">
-        <v>1388.17629442833</v>
+        <v>1694.528063388978</v>
       </c>
       <c r="AC5" t="n">
-        <v>1255.690697205756</v>
+        <v>1532.804683304207</v>
       </c>
       <c r="AD5" t="n">
-        <v>1014567.705642544</v>
+        <v>1238469.102461841</v>
       </c>
       <c r="AE5" t="n">
-        <v>1388176.29442833</v>
+        <v>1694528.063388978</v>
       </c>
       <c r="AF5" t="n">
         <v>3.676150448962701e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.54861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1255690.697205756</v>
+        <v>1532804.683304207</v>
       </c>
     </row>
     <row r="6">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>966.72134571723</v>
+        <v>1180.819093935863</v>
       </c>
       <c r="AB6" t="n">
-        <v>1322.710793946091</v>
+        <v>1615.648778384858</v>
       </c>
       <c r="AC6" t="n">
-        <v>1196.473132208134</v>
+        <v>1461.453526553109</v>
       </c>
       <c r="AD6" t="n">
-        <v>966721.34571723</v>
+        <v>1180819.093935863</v>
       </c>
       <c r="AE6" t="n">
-        <v>1322710.793946091</v>
+        <v>1615648.778384858</v>
       </c>
       <c r="AF6" t="n">
         <v>3.779723911440692e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1196473.132208134</v>
+        <v>1461453.526553109</v>
       </c>
     </row>
     <row r="7">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>926.3996174113631</v>
+        <v>1140.463200211216</v>
       </c>
       <c r="AB7" t="n">
-        <v>1267.540826408898</v>
+        <v>1560.432064214417</v>
       </c>
       <c r="AC7" t="n">
-        <v>1146.568508941155</v>
+        <v>1411.50661808595</v>
       </c>
       <c r="AD7" t="n">
-        <v>926399.6174113632</v>
+        <v>1140463.200211216</v>
       </c>
       <c r="AE7" t="n">
-        <v>1267540.826408898</v>
+        <v>1560432.064214417</v>
       </c>
       <c r="AF7" t="n">
         <v>3.854574132275197e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.48842592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>1146568.508941155</v>
+        <v>1411506.61808595</v>
       </c>
     </row>
     <row r="8">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>901.6726735903458</v>
+        <v>1106.068258434799</v>
       </c>
       <c r="AB8" t="n">
-        <v>1233.70833099721</v>
+        <v>1513.371387478186</v>
       </c>
       <c r="AC8" t="n">
-        <v>1115.964939407353</v>
+        <v>1368.93734628735</v>
       </c>
       <c r="AD8" t="n">
-        <v>901672.6735903458</v>
+        <v>1106068.258434799</v>
       </c>
       <c r="AE8" t="n">
-        <v>1233708.33099721</v>
+        <v>1513371.387478186</v>
       </c>
       <c r="AF8" t="n">
         <v>3.896739285032631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.02546296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>1115964.939407353</v>
+        <v>1368937.34628735</v>
       </c>
     </row>
     <row r="9">
@@ -24037,28 +24037,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>888.9759711929846</v>
+        <v>1103.106873800541</v>
       </c>
       <c r="AB9" t="n">
-        <v>1216.336142638163</v>
+        <v>1509.319490374525</v>
       </c>
       <c r="AC9" t="n">
-        <v>1100.250728323275</v>
+        <v>1365.272156556389</v>
       </c>
       <c r="AD9" t="n">
-        <v>888975.9711929846</v>
+        <v>1103106.873800541</v>
       </c>
       <c r="AE9" t="n">
-        <v>1216336.142638163</v>
+        <v>1509319.490374525</v>
       </c>
       <c r="AF9" t="n">
         <v>3.908907751935782e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.89814814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>1100250.728323275</v>
+        <v>1365272.156556389</v>
       </c>
     </row>
   </sheetData>
@@ -24334,28 +24334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>734.3961416108455</v>
+        <v>978.0615636244826</v>
       </c>
       <c r="AB2" t="n">
-        <v>1004.833200223102</v>
+        <v>1338.226980381899</v>
       </c>
       <c r="AC2" t="n">
-        <v>908.9333298860621</v>
+        <v>1210.508475587613</v>
       </c>
       <c r="AD2" t="n">
-        <v>734396.1416108455</v>
+        <v>978061.5636244826</v>
       </c>
       <c r="AE2" t="n">
-        <v>1004833.200223102</v>
+        <v>1338226.980381899</v>
       </c>
       <c r="AF2" t="n">
         <v>7.590260846885599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.34953703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>908933.3298860621</v>
+        <v>1210508.475587613</v>
       </c>
     </row>
   </sheetData>
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1072.880737824853</v>
+        <v>1327.70899941348</v>
       </c>
       <c r="AB2" t="n">
-        <v>1467.962757649581</v>
+        <v>1816.630027384604</v>
       </c>
       <c r="AC2" t="n">
-        <v>1327.862452358175</v>
+        <v>1643.253407227274</v>
       </c>
       <c r="AD2" t="n">
-        <v>1072880.737824853</v>
+        <v>1327708.99941348</v>
       </c>
       <c r="AE2" t="n">
-        <v>1467962.757649581</v>
+        <v>1816630.027384604</v>
       </c>
       <c r="AF2" t="n">
         <v>4.138007849097549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.33796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1327862.452358175</v>
+        <v>1643253.407227274</v>
       </c>
     </row>
     <row r="3">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>828.356837674929</v>
+        <v>1036.037890798544</v>
       </c>
       <c r="AB3" t="n">
-        <v>1133.394369831334</v>
+        <v>1417.552748956489</v>
       </c>
       <c r="AC3" t="n">
-        <v>1025.224801903619</v>
+        <v>1282.26350414386</v>
       </c>
       <c r="AD3" t="n">
-        <v>828356.8376749291</v>
+        <v>1036037.890798544</v>
       </c>
       <c r="AE3" t="n">
-        <v>1133394.369831333</v>
+        <v>1417552.748956489</v>
       </c>
       <c r="AF3" t="n">
         <v>4.90022320588908e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.20138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1025224.801903619</v>
+        <v>1282263.50414386</v>
       </c>
     </row>
     <row r="4">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>770.6982476026084</v>
+        <v>978.4124551151472</v>
       </c>
       <c r="AB4" t="n">
-        <v>1054.503343176917</v>
+        <v>1338.707085599666</v>
       </c>
       <c r="AC4" t="n">
-        <v>953.863024108849</v>
+        <v>1210.942760237229</v>
       </c>
       <c r="AD4" t="n">
-        <v>770698.2476026084</v>
+        <v>978412.4551151472</v>
       </c>
       <c r="AE4" t="n">
-        <v>1054503.343176917</v>
+        <v>1338707.085599666</v>
       </c>
       <c r="AF4" t="n">
         <v>5.077443422653524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.66203703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>953863.024108849</v>
+        <v>1210942.760237229</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1324.432044315893</v>
+        <v>1611.012151951997</v>
       </c>
       <c r="AB2" t="n">
-        <v>1812.14635285103</v>
+        <v>2204.257899140797</v>
       </c>
       <c r="AC2" t="n">
-        <v>1639.197648298307</v>
+        <v>1993.88661894219</v>
       </c>
       <c r="AD2" t="n">
-        <v>1324432.044315893</v>
+        <v>1611012.151951997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1812146.35285103</v>
+        <v>2204257.899140797</v>
       </c>
       <c r="AF2" t="n">
         <v>3.343537195158245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.68518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1639197.648298307</v>
+        <v>1993886.61894219</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>969.2819948774236</v>
+        <v>1198.566580237575</v>
       </c>
       <c r="AB3" t="n">
-        <v>1326.214387094936</v>
+        <v>1639.931672106698</v>
       </c>
       <c r="AC3" t="n">
-        <v>1199.642347344177</v>
+        <v>1483.418894979392</v>
       </c>
       <c r="AD3" t="n">
-        <v>969281.9948774236</v>
+        <v>1198566.580237575</v>
       </c>
       <c r="AE3" t="n">
-        <v>1326214.387094936</v>
+        <v>1639931.672106698</v>
       </c>
       <c r="AF3" t="n">
         <v>4.143553246688509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.55092592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>1199642.347344177</v>
+        <v>1483418.894979392</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>864.5597241129387</v>
+        <v>1074.667093767142</v>
       </c>
       <c r="AB4" t="n">
-        <v>1182.928756214446</v>
+        <v>1470.406928658283</v>
       </c>
       <c r="AC4" t="n">
-        <v>1070.031695972275</v>
+        <v>1330.073355116221</v>
       </c>
       <c r="AD4" t="n">
-        <v>864559.7241129387</v>
+        <v>1074667.093767142</v>
       </c>
       <c r="AE4" t="n">
-        <v>1182928.756214446</v>
+        <v>1470406.928658283</v>
       </c>
       <c r="AF4" t="n">
         <v>4.436831365974753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.47222222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>1070031.695972275</v>
+        <v>1330073.355116221</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>817.8482567699986</v>
+        <v>1027.921461005421</v>
       </c>
       <c r="AB5" t="n">
-        <v>1119.016065831338</v>
+        <v>1406.447491641926</v>
       </c>
       <c r="AC5" t="n">
-        <v>1012.218743057307</v>
+        <v>1272.218117001072</v>
       </c>
       <c r="AD5" t="n">
-        <v>817848.2567699986</v>
+        <v>1027921.461005421</v>
       </c>
       <c r="AE5" t="n">
-        <v>1119016.065831338</v>
+        <v>1406447.491641927</v>
       </c>
       <c r="AF5" t="n">
         <v>4.562307743146652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.26851851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>1012218.743057307</v>
+        <v>1272218.117001073</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>815.5721423706123</v>
+        <v>1016.158729494474</v>
       </c>
       <c r="AB6" t="n">
-        <v>1115.901785695017</v>
+        <v>1390.353203453559</v>
       </c>
       <c r="AC6" t="n">
-        <v>1009.401685446277</v>
+        <v>1257.659845088928</v>
       </c>
       <c r="AD6" t="n">
-        <v>815572.1423706122</v>
+        <v>1016158.729494474</v>
       </c>
       <c r="AE6" t="n">
-        <v>1115901.785695017</v>
+        <v>1390353.203453559</v>
       </c>
       <c r="AF6" t="n">
         <v>4.574305484390181e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.16435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1009401.685446277</v>
+        <v>1257659.845088928</v>
       </c>
     </row>
   </sheetData>
